--- a/7a_504_foia-data-dictionary.xlsx
+++ b/7a_504_foia-data-dictionary.xlsx
@@ -1,26 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\choudhurya\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewseastream/Documents/Documents/Ellington/ProjectNew/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D935B3-1B49-4621-BBB3-4FBB1C26688E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18720" windowHeight="11660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="23500" windowHeight="15820"/>
   </bookViews>
   <sheets>
-    <sheet name="7(a) Data Dictionary" sheetId="4" r:id="rId1"/>
-    <sheet name="504 Data Dictionary" sheetId="5" r:id="rId2"/>
+    <sheet name="504 Data Dictionary" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_504">#REF!</definedName>
     <definedName name="_7A">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Program</t>
   </si>
@@ -55,27 +53,9 @@
     <t>BorrZip</t>
   </si>
   <si>
-    <t>BankName</t>
-  </si>
-  <si>
-    <t>BankStreet</t>
-  </si>
-  <si>
-    <t>BankCity</t>
-  </si>
-  <si>
-    <t>BankState</t>
-  </si>
-  <si>
-    <t>BankZip</t>
-  </si>
-  <si>
     <t>GrossApproval</t>
   </si>
   <si>
-    <t>SBAGuaranteedApproval</t>
-  </si>
-  <si>
     <t>ApprovalDate</t>
   </si>
   <si>
@@ -88,9 +68,6 @@
     <t>subpgmdesc</t>
   </si>
   <si>
-    <t>InitialInterestRate</t>
-  </si>
-  <si>
     <t>TermInMonths</t>
   </si>
   <si>
@@ -124,9 +101,6 @@
     <t>GrossChargeOffAmount</t>
   </si>
   <si>
-    <t>RevolverStatus</t>
-  </si>
-  <si>
     <t>CDC_Name</t>
   </si>
   <si>
@@ -190,36 +164,12 @@
     <t>Borrower zip code</t>
   </si>
   <si>
-    <t>Name of the bank that the loan is currently assigned to</t>
-  </si>
-  <si>
-    <t>Bank street address</t>
-  </si>
-  <si>
-    <t>Bank city</t>
-  </si>
-  <si>
-    <t>Bank state</t>
-  </si>
-  <si>
-    <t>Bank zip code</t>
-  </si>
-  <si>
-    <t>Total loan amount</t>
-  </si>
-  <si>
-    <t>Amount of SBA's loan guaranty</t>
-  </si>
-  <si>
     <t>Date the loan was approved</t>
   </si>
   <si>
     <t>Fiscal year the loan was approved</t>
   </si>
   <si>
-    <t>Initial interest rate - total interest rate (base rate plus spread) at time loan was approved</t>
-  </si>
-  <si>
     <t>Length of loan term</t>
   </si>
   <si>
@@ -233,12 +183,6 @@
   </si>
   <si>
     <t>Date SBA charged off loan (if applicable)</t>
-  </si>
-  <si>
-    <t>Total loan balance charged off (includes guaranteed and non-guaranteed portion of loan)</t>
-  </si>
-  <si>
-    <t>Indicator of whether a loan is a term loan or revolving line of credit (0=Term, 1=Revolver)</t>
   </si>
   <si>
     <t>Name of CDC that the loan is currently assigned to</t>
@@ -264,28 +208,6 @@
 • PCLP = Premier Certified Lenders </t>
   </si>
   <si>
-    <t>Specific delivery method loan was approved under.  See SOP 50 10 5 for definitions and rules for each delivery method.  
-7(a) Delivery Methods:
-• CA = Community Advantage
-• CLP = Certified Lenders Program
-• COMM EXPRS = Community Express (inactive)
-• DFP = Dealer Floor Plan (inactive)
-• DIRECT = Direct Loan (inactive)
-• EWCP = Export Working Capital Program
-• EXP CO GTY = Co-guaranty with Export-Import Bank (inactive)
-• EXPRES EXP = Export Express
-• GO LOANS = Gulf Opportunity Loan (inactive)
-• INTER TRDE = International Trade
-• OTH 7A = Other 7(a) Loan
-• PATRIOT EX = Patriot Express (inactive)
-• PLP = Preferred Lender Program
-• RLA = Rural Lender Advantage (inactive)
-• SBA EXPRES = SBA Express
-• SLA = Small Loan Advantage
-• USCAIP = US Community Adjustment and Investment Program
-• Y2K = Y2K Loan (inactive)</t>
-  </si>
-  <si>
     <t>Subprogram description - specific subprogram loan was aproved under.  See SOP 50 10 5 for definitions and rules for each subprogram.</t>
   </si>
   <si>
@@ -307,9 +229,6 @@
     <t>Total SBA/CDC loan balance charged off</t>
   </si>
   <si>
-    <t>JobsSupported</t>
-  </si>
-  <si>
     <t>Jobs Supported</t>
   </si>
   <si>
@@ -320,14 +239,6 @@
   </si>
   <si>
     <t>Date of first loan disbursement (if available)</t>
-  </si>
-  <si>
-    <t>Current status of loan:  
-• COMMIT = Undisbursed
-• PIF = Paid In Full
-• CHGOFF = Charged Off
-• CANCLD = Cancelled
-• EXEMPT = The status of loans that have been disbursed but have not been cancelled, paid in full, or charged off are exempt from disclosure under FOIA Exemption 4</t>
   </si>
   <si>
     <t>Current status of loan:  
@@ -371,30 +282,12 @@
 • New Business or 2 years or less
 • Startup, Loan Funds will Open Business</t>
   </si>
-  <si>
-    <t>BankFDICNumber</t>
-  </si>
-  <si>
-    <t>BankNCUANumber</t>
-  </si>
-  <si>
-    <t>The National Credit Union Association charter number of the lender</t>
-  </si>
-  <si>
-    <t>The Federal Depository Insurance Corporation certificate ID of the lender</t>
-  </si>
-  <si>
-    <t>Soldsecmrtind</t>
-  </si>
-  <si>
-    <t>An indicator if the loan was sold on the secondary market. This is a static field once it is sold on the secondary market.Equals 'Y', if sold on the secondary market. Once it is 'Y' it will stay 'Y' for it's entirety. </t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,12 +299,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -452,13 +339,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -476,9 +360,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -816,681 +697,327 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:B41"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="74.6328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="75" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="105" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="304.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="6" t="s">
+      <c r="B38" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="45" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Commercial in Confidence</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B39"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.81640625" style="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1743,21 +1270,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1781,14 +1308,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48C6E5C8-069E-4794-97F1-A3A51E06B056}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F90F8B6-573D-4518-B8F1-5AB240F99466}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1796,4 +1315,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48C6E5C8-069E-4794-97F1-A3A51E06B056}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>